--- a/medicine/Enfance/Brigade_de_protection_des_mineurs/Brigade_de_protection_des_mineurs.xlsx
+++ b/medicine/Enfance/Brigade_de_protection_des_mineurs/Brigade_de_protection_des_mineurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brigade de protection des mineurs (BPM ou les Mineurs) est l'une des brigades centrales de la direction régionale de la police judiciaire de la préfecture de police de Paris. Son rôle est d'enquêter sur les infractions dont sont victimes les mineurs (viols, agressions sexuelles, mauvais traitements, violences, proxénétisme, pédophilie...).
-Anciennement domiciliée au 12 quai de Gesvres, elle est située aujourd'hui au « Bastion », le nouveau siège de la police judiciaire Parisienne, situé 36 rue du Bastion, dans le 17e arrondissement de Paris. Elle compte près de 100 fonctionnaires[1].
+Anciennement domiciliée au 12 quai de Gesvres, elle est située aujourd'hui au « Bastion », le nouveau siège de la police judiciaire Parisienne, situé 36 rue du Bastion, dans le 17e arrondissement de Paris. Elle compte près de 100 fonctionnaires.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'une délibération du conseil municipal de Paris du 28 décembre 1934, sont créés au sein de la Police municipale parisienne deux postes d’assistante auxiliaire de Police. Ces dernières sont chargées de la surveillance de la voie publique et sont recrutées parmi les assistantes sociales diplômées d’État.
 Le nombre de ces assistantes est porté à vingt à la suite d'un arrêté du Préfet de Police de mars 1942, et elles sont placées sous l’autorité de la direction de la Police judiciaire. Elles deviennent ainsi une section de la brigade mondaine, ayant pour mission de mener les enquêtes en lien avec les mineurs en danger moral.
-En 1943, cette section deviend une brigade autonome portant le nom de brigade de protection des mineurs[2].
+En 1943, cette section deviend une brigade autonome portant le nom de brigade de protection des mineurs.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brigade est composée de deux sections, elles-mêmes divisées en plusieurs groupes d'enquêteurs spécialisés.
 Section intra-familiale
@@ -587,12 +603,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Télévision
-1977: Brigade des mineurs, série télévisée (1977-1979)
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1977: Brigade des mineurs, série télévisée (1977-1979)
 2002: Brigade des mineurs série télévisée de M6.
-2013: Léo Matteï, Brigade des mineurs série télévisée  TF1
-Cinéma
-2011: Polisse, film français</t>
+2013: Léo Matteï, Brigade des mineurs série télévisée  TF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brigade_de_protection_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_protection_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2011: Polisse, film français</t>
         </is>
       </c>
     </row>
